--- a/dairyclimatemodel2/data/ghg_params.xlsx
+++ b/dairyclimatemodel2/data/ghg_params.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7649578E-5A2B-46F6-9BCE-D2B5AA639DEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="CO2_Fossil_Fuel" sheetId="6" r:id="rId7"/>
     <sheet name="allocation_factor" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -200,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,6 +247,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -289,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,9 +331,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,6 +383,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -888,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -948,11 +991,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,13 +1016,13 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>0.18</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="C2">
-        <v>0.18</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="D2">
-        <v>0.9</v>
+        <v>1.413</v>
       </c>
       <c r="G2" t="s">
         <v>51</v>
@@ -991,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1098,7 @@
         <v>0.9</v>
       </c>
       <c r="I2">
-        <v>2.2999999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="s">
         <v>51</v>
@@ -1067,7 +1110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1122,10 +1165,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1168,7 +1211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/dairyclimatemodel2/data/ghg_params.xlsx
+++ b/dairyclimatemodel2/data/ghg_params.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\GitHub\household_ghg_model\household_ghg_model\dairyclimatemodel2\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7649578E-5A2B-46F6-9BCE-D2B5AA639DEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="23256" windowHeight="12600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="23250" windowHeight="12600" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -206,7 +200,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -331,26 +325,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,23 +360,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,17 +535,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -872,14 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -931,14 +891,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E1" t="s">
@@ -991,14 +951,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1034,14 +994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1110,12 +1070,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
@@ -1165,14 +1125,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
@@ -1211,14 +1171,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
